--- a/TestData/LV_TMTT0037504_VerifyTheTASDNDFunctionalityforFVAOpportunityAndEngagementOnSFLightningView.xlsx
+++ b/TestData/LV_TMTT0037504_VerifyTheTASDNDFunctionalityforFVAOpportunityAndEngagementOnSFLightningView.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53666CA8-89C8-401F-A8C0-4C8BCCE0B796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10EA8D1-DF20-4F28-856C-8F9E568011F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="548" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="121">
   <si>
     <t>User</t>
   </si>
@@ -260,9 +260,6 @@
     <t>10000</t>
   </si>
   <si>
-    <t>Liz Hedgcock</t>
-  </si>
-  <si>
     <t>Tombstone Permission</t>
   </si>
   <si>
@@ -405,6 +402,12 @@
   </si>
   <si>
     <t>FIN</t>
+  </si>
+  <si>
+    <t>Blaise Brunda</t>
+  </si>
+  <si>
+    <t>Amy Xia</t>
   </si>
 </sst>
 </file>
@@ -1215,12 +1218,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1262,7 +1265,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1285,7 +1288,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1299,7 +1302,7 @@
         <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1412,7 @@
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>12</v>
@@ -1484,7 +1487,7 @@
         <v>34</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>35</v>
@@ -1498,10 +1501,10 @@
         <v>36</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
@@ -1531,7 +1534,7 @@
         <v>41</v>
       </c>
       <c r="N2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>42</v>
@@ -1576,7 +1579,7 @@
         <v>70</v>
       </c>
       <c r="AC2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD2" t="s">
         <v>38</v>
@@ -1616,24 +1619,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1642,83 +1645,83 @@
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" t="s">
         <v>110</v>
-      </c>
-      <c r="E5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
         <v>100</v>
       </c>
-      <c r="B6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" t="s">
-        <v>101</v>
-      </c>
       <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" t="s">
         <v>110</v>
-      </c>
-      <c r="E6" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1727,10 +1730,10 @@
         <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1740,10 +1743,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C57A28D-BDAE-4AE1-A126-325DE86B36F7}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1756,29 +1759,29 @@
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1787,15 +1790,15 @@
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1804,13 +1807,16 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" t="s">
         <v>110</v>
       </c>
-      <c r="E3" t="s">
-        <v>111</v>
-      </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="G3" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1913,30 +1919,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2">
         <v>11</v>
@@ -1944,10 +1950,10 @@
     </row>
     <row r="3" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>40</v>
@@ -1958,10 +1964,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
@@ -1975,16 +1981,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1992,16 +1998,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -2009,16 +2015,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -2026,16 +2032,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -2043,16 +2049,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -2060,16 +2066,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10">
         <v>7</v>
@@ -2077,16 +2083,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -2094,16 +2100,16 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12">
         <v>9</v>
@@ -2111,16 +2117,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="C13" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13">
         <v>10</v>
